--- a/project_file/team5_task.xlsx
+++ b/project_file/team5_task.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\node36_cuoi_khoa_movie-api\project_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2199368-55DC-43A5-86EF-51BB2316DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Start
 Build</t>
@@ -61,9 +67,6 @@
     <t>Complete project initialization, folder structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Dev 2 : </t>
-  </si>
-  <si>
     <t>Database design</t>
   </si>
   <si>
@@ -74,21 +77,26 @@
   </si>
   <si>
     <t>Dev1</t>
+  </si>
+  <si>
+    <t>Dev 2 : Nguyễn Hoàng Quý</t>
+  </si>
+  <si>
+    <t>Code Movie Api</t>
+  </si>
+  <si>
+    <t>Code Cinema Api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="mm/dd"/>
-    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="mm/dd"/>
+    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,159 +122,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,194 +160,8 @@
         <bgColor rgb="FFAEABAB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -578,375 +249,93 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -963,6 +352,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1160,37 +552,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L980"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="3" width="7.3" customWidth="1"/>
-    <col min="4" max="4" width="7.63333333333333" customWidth="1"/>
+    <col min="2" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="7.63333333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="7.63333333333333" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="37.1" customWidth="1"/>
-    <col min="11" max="11" width="7.63333333333333" customWidth="1"/>
-    <col min="12" max="12" width="24.8" customWidth="1"/>
-    <col min="13" max="26" width="7.63333333333333" customWidth="1"/>
+    <col min="10" max="10" width="37.125" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1213,17 +606,17 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="13.8" spans="1:12">
+    <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +629,7 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5">
@@ -1245,22 +638,22 @@
       <c r="G2" s="5">
         <v>45254</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25">
+      <c r="A3" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="5">
         <v>45255</v>
@@ -1271,24 +664,24 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="5">
         <v>45255</v>
       </c>
       <c r="G3" s="5">
         <v>45255</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="A4" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="24" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>45256</v>
@@ -1299,81 +692,105 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="5">
         <v>45256</v>
       </c>
       <c r="G4" s="5">
         <v>45256</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45270</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45274</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="5">
+        <v>45274</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45274</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="24"/>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45274</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45277</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="5">
+        <v>45277</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45277</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="23"/>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="17"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2348,7 +1765,7 @@
     <mergeCell ref="I6:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2358,7 +1775,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/project_file/team5_task.xlsx
+++ b/project_file/team5_task.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\node36_cuoi_khoa_movie-api\project_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2199368-55DC-43A5-86EF-51BB2316DD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Start
 Build</t>
@@ -67,10 +61,19 @@
     <t>Complete project initialization, folder structure</t>
   </si>
   <si>
+    <t>Dev 2 : Nguyễn Hoàng Quý</t>
+  </si>
+  <si>
     <t>Database design</t>
   </si>
   <si>
+    <t>Code features : Booking ticket api, User management api and write Swagger API documentation.</t>
+  </si>
+  <si>
     <t>Code features and write Swagger API documentation.</t>
+  </si>
+  <si>
+    <t>Code Movie Api</t>
   </si>
   <si>
     <t>Dev  2</t>
@@ -79,24 +82,22 @@
     <t>Dev1</t>
   </si>
   <si>
-    <t>Dev 2 : Nguyễn Hoàng Quý</t>
-  </si>
-  <si>
-    <t>Code Movie Api</t>
-  </si>
-  <si>
     <t>Code Cinema Api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="mm/dd"/>
-    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="mm/dd"/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +123,159 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +312,194 @@
         <bgColor rgb="FFAEABAB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -249,9 +587,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -261,23 +841,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -286,10 +869,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -305,37 +900,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -352,9 +969,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,19 +1166,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L980"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -583,7 +1196,7 @@
     <col min="13" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1">
+    <row r="1" ht="25.5" customHeight="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -606,17 +1219,17 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25">
+    <row r="2" ht="13.8" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -629,7 +1242,7 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5">
@@ -638,22 +1251,22 @@
       <c r="G2" s="5">
         <v>45254</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25">
+    <row r="3" ht="13.8" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5">
         <v>45255</v>
@@ -664,24 +1277,24 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="5">
         <v>45255</v>
       </c>
       <c r="G3" s="5">
         <v>45255</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="17" t="s">
-        <v>13</v>
+      <c r="I3" s="7"/>
+      <c r="J3" s="22" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24">
+    <row r="4" ht="36" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>45256</v>
@@ -692,36 +1305,36 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5">
         <v>45256</v>
       </c>
       <c r="G4" s="5">
         <v>45256</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17" t="s">
-        <v>14</v>
+      <c r="I4" s="7"/>
+      <c r="J4" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="18"/>
+    <row r="5" ht="13.8" spans="1:10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="14.25">
+    <row r="6" ht="13.8" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
         <v>45270</v>
@@ -729,9 +1342,11 @@
       <c r="C6" s="5">
         <v>45274</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>45274</v>
@@ -739,17 +1354,19 @@
       <c r="G6" s="5">
         <v>45274</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="23" t="s">
-        <v>16</v>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <v>45274</v>
@@ -757,40 +1374,48 @@
       <c r="C7" s="5">
         <v>45277</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="5">
         <v>45277</v>
       </c>
       <c r="G7" s="5">
         <v>45277</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
       <c r="A8" s="4"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1765,7 +2390,7 @@
     <mergeCell ref="I6:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1775,6 +2400,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>